--- a/ExcelFiles/Item.xlsx
+++ b/ExcelFiles/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8580"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>int</t>
   </si>
@@ -46,15 +46,30 @@
     <t>star</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>icon</t>
   </si>
   <si>
     <t>descript</t>
   </si>
   <si>
+    <t>ideologyPos</t>
+  </si>
+  <si>
+    <t>ideologyClassId</t>
+  </si>
+  <si>
+    <t>ideologyEffect_Two</t>
+  </si>
+  <si>
+    <t>ideologyEffect_Two_Data</t>
+  </si>
+  <si>
+    <t>ideologyEffect_Four</t>
+  </si>
+  <si>
+    <t>ideologyEffect_Four_Data</t>
+  </si>
+  <si>
     <t>螺母</t>
   </si>
   <si>
@@ -65,18 +80,6 @@
   </si>
   <si>
     <t>极其稀有且极具价值的货币，所有人都对它趋之若鹜。</t>
-  </si>
-  <si>
-    <t>意识3号</t>
-  </si>
-  <si>
-    <t>意识4号</t>
-  </si>
-  <si>
-    <t>意识5号</t>
-  </si>
-  <si>
-    <t>意识6号</t>
   </si>
 </sst>
 </file>
@@ -1047,20 +1050,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="15.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="20.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="48.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="16.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="23.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="26.2222222222222" customWidth="1"/>
+    <col min="10" max="10" width="30.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1071,16 +1080,31 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1096,105 +1120,84 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" s="1"/>
+      <c r="J5"/>
+      <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelFiles/Item.xlsx
+++ b/ExcelFiles/Item.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>int</t>
   </si>
@@ -52,31 +52,19 @@
     <t>descript</t>
   </si>
   <si>
-    <t>ideologyPos</t>
-  </si>
-  <si>
-    <t>ideologyClassId</t>
-  </si>
-  <si>
-    <t>ideologyEffect_Two</t>
-  </si>
-  <si>
-    <t>ideologyEffect_Two_Data</t>
-  </si>
-  <si>
-    <t>ideologyEffect_Four</t>
-  </si>
-  <si>
-    <t>ideologyEffect_Four_Data</t>
-  </si>
-  <si>
     <t>螺母</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>空中花园最常见的货币，价值不高但却是不可或缺的。</t>
   </si>
   <si>
     <t>黑卡</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>极其稀有且极具价值的货币，所有人都对它趋之若鹜。</t>
@@ -1050,26 +1038,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
-  <cols>
-    <col min="2" max="2" width="15.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="48.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="16.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="23.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="26.2222222222222" customWidth="1"/>
-    <col min="10" max="10" width="30.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,26 +1062,8 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1119,24 +1078,6 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1144,12 +1085,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1157,47 +1100,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5" s="1"/>
-      <c r="J5"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
